--- a/Data/Study_01/Raw/Unique_Events_Primary_final.xlsx
+++ b/Data/Study_01/Raw/Unique_Events_Primary_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wjpmi\Documents\GitHub\fright_night_study\Data\Study_01\Raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wjpmi\Dropbox\PC (2)\Documents\GitHub\fright_night_study\Data\Study_01\Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F647BDF-9275-4E64-B593-DC48D8B049D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9542B2-84BD-4B48-903D-4BB99F4E8C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21420" yWindow="2115" windowWidth="21420" windowHeight="15600" xr2:uid="{0DD03DC6-4D36-4DB7-A37C-71AABB4B6331}"/>
+    <workbookView xWindow="2025" yWindow="2565" windowWidth="21600" windowHeight="11385" xr2:uid="{0DD03DC6-4D36-4DB7-A37C-71AABB4B6331}"/>
   </bookViews>
   <sheets>
     <sheet name="Unique_Events_Primary" sheetId="1" r:id="rId1"/>
@@ -2065,15 +2065,9 @@
     <t>small ramp?</t>
   </si>
   <si>
-    <t>Katie</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Marissa</t>
-  </si>
-  <si>
     <t>Possibly man at the typewriter since that seems to be the only table with an actor at it, but I'm unsure.</t>
   </si>
   <si>
@@ -2147,6 +2141,12 @@
   </si>
   <si>
     <t xml:space="preserve">Having to wait to walk through the guy with the dead bodies. in the dark one of the actors came up and scared me because I wasn't paying attention to him. </t>
+  </si>
+  <si>
+    <t>Reviewer1</t>
+  </si>
+  <si>
+    <t>Reviewer2</t>
   </si>
 </sst>
 </file>
@@ -3035,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250E47D1-CB24-4368-A326-8C1DA47A2CD6}">
   <dimension ref="A1:I316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3066,19 +3066,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>674</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>675</v>
+        <v>700</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3101,7 +3101,7 @@
         <v>649</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>653</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
         <v>642</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3170,7 +3170,7 @@
         <v>658</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>645</v>
@@ -3194,7 +3194,7 @@
       </c>
       <c r="F6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>642</v>
@@ -3220,10 +3220,10 @@
         <v>660</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
         <v>642</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>642</v>
@@ -3266,10 +3266,10 @@
         <v>642</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,10 +3381,10 @@
         <v>642</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3407,7 +3407,7 @@
         <v>645</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
         <v>642</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>642</v>
@@ -3519,10 +3519,10 @@
         <v>642</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3542,10 +3542,10 @@
         <v>642</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>697</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3591,7 +3591,7 @@
         <v>643</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>643</v>
@@ -3663,7 +3663,7 @@
         <v>646</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3683,7 +3683,7 @@
         <v>645</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3732,10 +3732,10 @@
         <v>644</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3758,7 +3758,7 @@
         <v>655</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>645</v>
@@ -3781,10 +3781,10 @@
         <v>645</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3856,7 +3856,7 @@
         <v>642</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3879,10 +3879,10 @@
         <v>662</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3905,10 +3905,10 @@
         <v>664</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3931,10 +3931,10 @@
         <v>647</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3983,7 +3983,7 @@
         <v>668</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>642</v>
@@ -4029,10 +4029,10 @@
         <v>645</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4046,7 +4046,7 @@
         <v>478</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>645</v>
@@ -4075,10 +4075,10 @@
         <v>645</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4101,10 +4101,10 @@
         <v>670</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4127,10 +4127,10 @@
         <v>670</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4202,10 +4202,10 @@
         <v>659</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4228,10 +4228,10 @@
         <v>665</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4251,13 +4251,13 @@
         <v>644</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I50" s="5" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>14</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -4305,7 +4305,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>19</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
@@ -4377,7 +4377,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>51</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>24</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>76</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>80</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>90</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>90</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>95</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>97</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>99</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>101</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>103</v>
       </c>
@@ -4713,7 +4713,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>106</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>51</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>109</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>76</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>112</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>114</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>114</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>117</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>70</v>
       </c>
@@ -4977,7 +4977,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>42</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>123</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>125</v>
       </c>
@@ -5049,7 +5049,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>80</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>82</v>
       </c>
@@ -5097,7 +5097,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>129</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>132</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>135</v>
       </c>
@@ -5165,14 +5165,14 @@
         <v>642</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I88" s="5" t="str">
         <f>IF(E88=G88,E88," ")</f>
         <v>Crypt</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>138</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>141</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>132</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>147</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>36</v>
       </c>
@@ -5291,14 +5291,14 @@
         <v>642</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I93" s="5" t="str">
         <f>IF(E93=G93,E93," ")</f>
         <v>Crypt</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>152</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>167</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>172</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>182</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>123</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>190</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>199</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>202</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>204</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>206</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>209</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>212</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>172</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>206</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>221</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>70</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>4</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>152</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>36</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>247</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>172</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>259</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>76</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>138</v>
       </c>
@@ -5900,14 +5900,14 @@
         <v>642</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I118" s="5" t="str">
         <f>IF(E118=G118,E118," ")</f>
         <v>Crypt</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>24</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>112</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>114</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>109</v>
       </c>
@@ -6003,7 +6003,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>114</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>82</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>295</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>303</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>259</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>209</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>167</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>125</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>329</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>90</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>51</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>42</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>351</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>259</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>212</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>376</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>129</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>42</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>212</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>4</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>400</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>95</v>
       </c>
@@ -6534,7 +6534,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>101</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>206</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>351</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>80</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>428</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>147</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>26</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>19</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>230</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>146</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>87</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>14</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>147</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>64</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>500</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>204</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>101</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>87</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>138</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>555</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>564</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>566</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>230</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>36</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>606</v>
       </c>
@@ -7137,7 +7137,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>259</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>606</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>109</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>247</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>145</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>Crypt</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>36</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>64</v>
       </c>
@@ -7333,7 +7333,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>73</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>87</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>24</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>216</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>247</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>209</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>300</v>
       </c>
@@ -7501,7 +7501,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>185</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>42</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>303</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>70</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>311</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>206</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>230</v>
       </c>
@@ -7669,7 +7669,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>42</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>475</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>141</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>295</v>
       </c>
@@ -7765,7 +7765,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>472</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>103</v>
       </c>
@@ -7813,7 +7813,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>39</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>172</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>138</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>95</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>141</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>129</v>
       </c>
@@ -7957,7 +7957,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>339</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>Delirium</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>4</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>7</v>
       </c>
@@ -8029,7 +8029,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>10</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>24</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>39</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>42</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>45</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>7</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>7</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>61</v>
       </c>
@@ -8245,7 +8245,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>70</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>51</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>129</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>129</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>61</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>160</v>
       </c>
@@ -8389,7 +8389,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>70</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>42</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>123</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>125</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>179</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>185</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>193</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>193</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>36</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>182</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>256</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>167</v>
       </c>
@@ -8678,7 +8678,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>117</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>152</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>70</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>160</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>167</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>309</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>311</v>
       </c>
@@ -8846,7 +8846,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>32</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>138</v>
       </c>
@@ -8894,7 +8894,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>101</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>51</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>109</v>
       </c>
@@ -8966,7 +8966,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>141</v>
       </c>
@@ -8990,7 +8990,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>339</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>280</v>
       </c>
@@ -9038,7 +9038,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>141</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>90</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>230</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>26</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>216</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>259</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>329</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>64</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>300</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>193</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>408</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>410</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>172</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>29</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>273</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>4</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>125</v>
       </c>
@@ -9452,7 +9452,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>145</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>185</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>141</v>
       </c>
@@ -9524,7 +9524,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>472</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>433</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>247</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>29</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>48</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>303</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>141</v>
       </c>
@@ -9692,7 +9692,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>295</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>410</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>160</v>
       </c>
@@ -9764,7 +9764,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>536</v>
       </c>
@@ -9788,7 +9788,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>106</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>106</v>
       </c>
@@ -9836,7 +9836,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>7</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>196</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>129</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>129</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>179</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>4</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>10</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>216</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>106</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>4</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>26</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>58</v>
       </c>
@@ -10124,7 +10124,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>160</v>
       </c>
@@ -10151,7 +10151,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>196</v>
       </c>
@@ -10175,7 +10175,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>601</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>295</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>410</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>216</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>199</v>
       </c>
@@ -10295,7 +10295,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>106</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>106</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>400</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>311</v>
       </c>
@@ -10391,7 +10391,7 @@
         <v>Machine_Shop</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>230</v>
       </c>
@@ -10415,7 +10415,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>129</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>119</v>
       </c>
@@ -10463,7 +10463,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>440</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>273</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>129</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>284</v>
       </c>
@@ -10559,7 +10559,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>42</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>172</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="55.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>125</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>212</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>Take_13</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>24</v>
       </c>
